--- a/Fabrication/BoM/baggerdails-bom_.xlsx
+++ b/Fabrication/BoM/baggerdails-bom_.xlsx
@@ -401,7 +401,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
+    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
